--- a/第二轮建模/简化数据/分社的人力资源.xlsx
+++ b/第二轮建模/简化数据/分社的人力资源.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="15330" windowHeight="4470"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="15330" windowHeight="4470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="92512"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>所属分社</t>
   </si>
@@ -69,15 +69,15 @@
   </si>
   <si>
     <t>分社人力资源细目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>数据说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>英语类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -87,11 +87,12 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>本题暂不考虑新的人力资源计划。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -101,22 +102,237 @@
       <rPr>
         <sz val="12"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>虽然每年的各个部门的人员总数有所变化，但是为了简化，我们仅给出历年平均值。工作能力指每人每年最多能够完成的书号个数。</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>_9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
@@ -128,6 +344,12 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -144,7 +366,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -213,26 +435,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,8 +481,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,11 +803,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,6 +906,22 @@
       <c r="G7" s="2">
         <v>3</v>
       </c>
+      <c r="H7">
+        <f>B7*C7</f>
+        <v>144</v>
+      </c>
+      <c r="I7">
+        <f>D7*E7</f>
+        <v>140</v>
+      </c>
+      <c r="J7">
+        <f>F7*G7</f>
+        <v>114</v>
+      </c>
+      <c r="K7">
+        <f>MIN(H7:J7)</f>
+        <v>114</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -686,6 +945,22 @@
       <c r="G8" s="2">
         <v>3</v>
       </c>
+      <c r="H8">
+        <f t="shared" ref="H8:H15" si="0">B8*C8</f>
+        <v>114</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ref="I8:I15" si="1">D8*E8</f>
+        <v>144</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:J15" si="2">F8*G8</f>
+        <v>114</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:K15" si="3">MIN(H8:J8)</f>
+        <v>114</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
@@ -709,6 +984,22 @@
       <c r="G9" s="2">
         <v>4</v>
       </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
@@ -732,6 +1023,22 @@
       <c r="G10" s="2">
         <v>4</v>
       </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
     </row>
     <row r="11" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -755,6 +1062,22 @@
       <c r="G11" s="2">
         <v>3</v>
       </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -778,6 +1101,22 @@
       <c r="G12" s="2">
         <v>3</v>
       </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -801,6 +1140,22 @@
       <c r="G13" s="2">
         <v>2</v>
       </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
@@ -824,6 +1179,22 @@
       <c r="G14" s="2">
         <v>3</v>
       </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>116</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -846,6 +1217,94 @@
       </c>
       <c r="G15" s="2">
         <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E18" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="10">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E21" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="10">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="10">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E24" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="10">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E25" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="10">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -854,7 +1313,7 @@
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:L3"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -862,28 +1321,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
